--- a/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.504044327656686</v>
+        <v>2.511032400900774</v>
       </c>
       <c r="C2">
-        <v>0.5785970376459488</v>
+        <v>0.590412876225372</v>
       </c>
       <c r="D2">
-        <v>0.008674122566489473</v>
+        <v>0.117300427808928</v>
       </c>
       <c r="E2">
-        <v>0.04270009457951929</v>
+        <v>0.07499715074964897</v>
       </c>
       <c r="F2">
-        <v>2.4604242960541</v>
+        <v>0.703867746715062</v>
       </c>
       <c r="G2">
-        <v>0.0008127981886737164</v>
+        <v>0.0008001339932812926</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09510790995089735</v>
+        <v>0.06882588695344438</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6211662076884465</v>
+        <v>0.6915375429225605</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.759604055360526</v>
+        <v>1.621527965926674</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166963113107727</v>
+        <v>2.182318179963772</v>
       </c>
       <c r="C3">
-        <v>0.4992396940383799</v>
+        <v>0.5174734444742626</v>
       </c>
       <c r="D3">
-        <v>0.008149692676596487</v>
+        <v>0.1066986615318939</v>
       </c>
       <c r="E3">
-        <v>0.04074254116505927</v>
+        <v>0.07107054594976958</v>
       </c>
       <c r="F3">
-        <v>2.270273786935462</v>
+        <v>0.6772604628362942</v>
       </c>
       <c r="G3">
-        <v>0.0008212414171393505</v>
+        <v>0.0008048389001364035</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09081606769922956</v>
+        <v>0.06797435720904232</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5408984744333765</v>
+        <v>0.601953293340209</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.621900938997399</v>
+        <v>1.578553136202714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962968007637073</v>
+        <v>1.980943235588711</v>
       </c>
       <c r="C4">
-        <v>0.4511222472069107</v>
+        <v>0.4727151787537025</v>
       </c>
       <c r="D4">
-        <v>0.007833087788126747</v>
+        <v>0.1002643777503494</v>
       </c>
       <c r="E4">
-        <v>0.03959587270056808</v>
+        <v>0.06876573194679736</v>
       </c>
       <c r="F4">
-        <v>2.158517980529453</v>
+        <v>0.6628085804996289</v>
       </c>
       <c r="G4">
-        <v>0.0008265626344043312</v>
+        <v>0.0008078195435744442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08834359126008451</v>
+        <v>0.0676129639126799</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4924156375166788</v>
+        <v>0.5471723122943004</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.541059849602163</v>
+        <v>1.557400940211181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.880482704499116</v>
+        <v>1.89896140882243</v>
       </c>
       <c r="C5">
-        <v>0.4316425138731006</v>
+        <v>0.4544760867575803</v>
       </c>
       <c r="D5">
-        <v>0.007705280149277627</v>
+        <v>0.09765988116643598</v>
       </c>
       <c r="E5">
-        <v>0.03914164806171883</v>
+        <v>0.06785184976252978</v>
       </c>
       <c r="F5">
-        <v>2.114119715644492</v>
+        <v>0.657367487012813</v>
       </c>
       <c r="G5">
-        <v>0.0008287671507969111</v>
+        <v>0.00080905777131038</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08737395552286742</v>
+        <v>0.06750442291640724</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4728349137929371</v>
+        <v>0.5248945065600239</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.508963454070553</v>
+        <v>1.550024973526263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.866822140179636</v>
+        <v>1.885352253915784</v>
       </c>
       <c r="C6">
-        <v>0.4284150073426929</v>
+        <v>0.4514473349492505</v>
       </c>
       <c r="D6">
-        <v>0.007684127191403434</v>
+        <v>0.09722842588898573</v>
       </c>
       <c r="E6">
-        <v>0.03906698922891394</v>
+        <v>0.06770159345973426</v>
       </c>
       <c r="F6">
-        <v>2.106813314701782</v>
+        <v>0.656490335943424</v>
       </c>
       <c r="G6">
-        <v>0.0008291354330115686</v>
+        <v>0.0008092648171711731</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08721515518213963</v>
+        <v>0.06748868621249215</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4695935085218323</v>
+        <v>0.5211977724370342</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.503682654407385</v>
+        <v>1.548873271035376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961853103452029</v>
+        <v>1.979837319996022</v>
       </c>
       <c r="C7">
-        <v>0.4508590470893523</v>
+        <v>0.4724692071358731</v>
       </c>
       <c r="D7">
-        <v>0.007831359398142723</v>
+        <v>0.1002291834166229</v>
       </c>
       <c r="E7">
-        <v>0.03958969509149846</v>
+        <v>0.06875330609731733</v>
       </c>
       <c r="F7">
-        <v>2.157914724847345</v>
+        <v>0.6627334185632208</v>
       </c>
       <c r="G7">
-        <v>0.0008265922172038759</v>
+        <v>0.0008078361465687983</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08833036467630251</v>
+        <v>0.0676113456714944</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4921508824596827</v>
+        <v>0.5468716935551967</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540623665124158</v>
+        <v>1.557296522555532</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.387136226938196</v>
+        <v>2.397575136155638</v>
       </c>
       <c r="C8">
-        <v>0.5510929484595408</v>
+        <v>0.5652537165230456</v>
       </c>
       <c r="D8">
-        <v>0.008492082511088128</v>
+        <v>0.1136284530624039</v>
       </c>
       <c r="E8">
-        <v>0.0420131243544315</v>
+        <v>0.07362039761622441</v>
       </c>
       <c r="F8">
-        <v>2.393751873566885</v>
+        <v>0.6942862930311051</v>
       </c>
       <c r="G8">
-        <v>0.0008156819851653632</v>
+        <v>0.0008017375016546313</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09359242250840083</v>
+        <v>0.06849761439414337</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5933075788470035</v>
+        <v>0.6605958421832199</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.711300322388809</v>
+        <v>1.605578905406986</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.249921556454751</v>
+        <v>3.222112564752592</v>
       </c>
       <c r="C9">
-        <v>0.7537130470965394</v>
+        <v>0.7477427643987937</v>
       </c>
       <c r="D9">
-        <v>0.009838812760943227</v>
+        <v>0.1405700044766292</v>
       </c>
       <c r="E9">
-        <v>0.04724647533354442</v>
+        <v>0.08407167322652143</v>
       </c>
       <c r="F9">
-        <v>2.901546820105978</v>
+        <v>0.772361749233454</v>
       </c>
       <c r="G9">
-        <v>0.0007952939662739692</v>
+        <v>0.0007904822752290379</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1053521528598367</v>
+        <v>0.07160630239940602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7993064898868951</v>
+        <v>0.8859046869907914</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079707092247077</v>
+        <v>1.745278919381292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.909556351554954</v>
+        <v>3.833817960871102</v>
       </c>
       <c r="C10">
-        <v>0.9082249250334939</v>
+        <v>0.8826510092532658</v>
       </c>
       <c r="D10">
-        <v>0.01087380992322728</v>
+        <v>0.1608740113847773</v>
       </c>
       <c r="E10">
-        <v>0.05145088374196405</v>
+        <v>0.09240001555872368</v>
       </c>
       <c r="F10">
-        <v>3.311103242132361</v>
+        <v>0.8414529053121811</v>
       </c>
       <c r="G10">
-        <v>0.0007808036463028772</v>
+        <v>0.0007826061651286679</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151036944481021</v>
+        <v>0.07485942188309735</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9572990566521469</v>
+        <v>1.053630636205376</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.377613138384177</v>
+        <v>1.880554311197869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.217349134979941</v>
+        <v>4.114032435659965</v>
       </c>
       <c r="C11">
-        <v>0.9802509374989938</v>
+        <v>0.9443296572093516</v>
       </c>
       <c r="D11">
-        <v>0.0113587625172471</v>
+        <v>0.1702468645529081</v>
       </c>
       <c r="E11">
-        <v>0.05345862488240272</v>
+        <v>0.09635322832840032</v>
       </c>
       <c r="F11">
-        <v>3.507625232719704</v>
+        <v>0.8758783694133854</v>
       </c>
       <c r="G11">
-        <v>0.0007742857657431183</v>
+        <v>0.0007790998354242612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1198413219118066</v>
+        <v>0.07658200365374057</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.03113232789832</v>
+        <v>1.130602605347008</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.520778646279155</v>
+        <v>1.950436443986149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.335216368984163</v>
+        <v>4.220480360094655</v>
       </c>
       <c r="C12">
-        <v>1.007824439734691</v>
+        <v>0.9677412189128063</v>
       </c>
       <c r="D12">
-        <v>0.01154487572767238</v>
+        <v>0.1738179976031802</v>
       </c>
       <c r="E12">
-        <v>0.05423420948586255</v>
+        <v>0.09787597805096837</v>
       </c>
       <c r="F12">
-        <v>3.583731773347267</v>
+        <v>0.8893857753171943</v>
       </c>
       <c r="G12">
-        <v>0.0007718251777102392</v>
+        <v>0.0007777823199491274</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1216844835957929</v>
+        <v>0.07727213015107992</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.059422742849634</v>
+        <v>1.159863912261358</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.576257892139068</v>
+        <v>1.978213202987405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.309769645449023</v>
+        <v>4.197538957635288</v>
       </c>
       <c r="C13">
-        <v>1.001871849632153</v>
+        <v>0.9626964815476811</v>
       </c>
       <c r="D13">
-        <v>0.0115046749843124</v>
+        <v>0.1730478817806329</v>
       </c>
       <c r="E13">
-        <v>0.0540664651543068</v>
+        <v>0.09754684627645815</v>
       </c>
       <c r="F13">
-        <v>3.567261985189162</v>
+        <v>0.8864550752728633</v>
       </c>
       <c r="G13">
-        <v>0.0007723548241845429</v>
+        <v>0.000778065627014227</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1212852410291418</v>
+        <v>0.07712176785722846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.053314302141771</v>
+        <v>1.153556623679364</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.564250271041303</v>
+        <v>1.972170627444342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.227018575551369</v>
+        <v>4.122782877388772</v>
       </c>
       <c r="C14">
-        <v>0.9825131326456358</v>
+        <v>0.9462545684415318</v>
       </c>
       <c r="D14">
-        <v>0.01137402177328006</v>
+        <v>0.1705402128379347</v>
       </c>
       <c r="E14">
-        <v>0.05352211612330393</v>
+        <v>0.09647797719004814</v>
       </c>
       <c r="F14">
-        <v>3.513851372930077</v>
+        <v>0.8769799439051411</v>
       </c>
       <c r="G14">
-        <v>0.0007740831983559702</v>
+        <v>0.0007789912416174261</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1199919397035032</v>
+        <v>0.0766380051886415</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.033452850428958</v>
+        <v>1.133007569634387</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.525316561967173</v>
+        <v>1.952694635182127</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.17650859371571</v>
+        <v>4.077038251117642</v>
       </c>
       <c r="C15">
-        <v>0.9706958428371308</v>
+        <v>0.9361909497152396</v>
       </c>
       <c r="D15">
-        <v>0.01129432945752562</v>
+        <v>0.169007105847669</v>
       </c>
       <c r="E15">
-        <v>0.05319073021673049</v>
+        <v>0.09582668259689697</v>
       </c>
       <c r="F15">
-        <v>3.481362661672421</v>
+        <v>0.8712387785927689</v>
       </c>
       <c r="G15">
-        <v>0.0007751427693874964</v>
+        <v>0.0007795595195468889</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1192063366013159</v>
+        <v>0.07634670286116574</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.021331865945477</v>
+        <v>1.120436015639385</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.501638665530791</v>
+        <v>1.940939682023355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.889613444438794</v>
+        <v>3.81554920637592</v>
       </c>
       <c r="C16">
-        <v>0.9035568543283716</v>
+        <v>0.8786272740849483</v>
       </c>
       <c r="D16">
-        <v>0.01084243711018118</v>
+        <v>0.1602644044856874</v>
       </c>
       <c r="E16">
-        <v>0.05132172103049193</v>
+        <v>0.09214515050101824</v>
       </c>
       <c r="F16">
-        <v>3.298483669983824</v>
+        <v>0.8392667833117855</v>
       </c>
       <c r="G16">
-        <v>0.0007812308410339281</v>
+        <v>0.0007828367894374172</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1148006234033474</v>
+        <v>0.07475197546867207</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9525174167936328</v>
+        <v>1.048615289404928</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.368424497210441</v>
+        <v>1.876164794167067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.715726024419325</v>
+        <v>3.655671655800802</v>
       </c>
       <c r="C17">
-        <v>0.8628470898998444</v>
+        <v>0.8434001981721337</v>
       </c>
       <c r="D17">
-        <v>0.01056912098738927</v>
+        <v>0.1549375101970156</v>
       </c>
       <c r="E17">
-        <v>0.0502005977885851</v>
+        <v>0.08993024107655145</v>
       </c>
       <c r="F17">
-        <v>3.189056230733058</v>
+        <v>0.8204480048888456</v>
       </c>
       <c r="G17">
-        <v>0.0007849825537756421</v>
+        <v>0.0007848663775250014</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1121789735898631</v>
+        <v>0.07383783234639907</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9108374618724326</v>
+        <v>1.004739493779425</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.288771741497115</v>
+        <v>1.838642938996031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.616423778628302</v>
+        <v>3.563893856019604</v>
       </c>
       <c r="C18">
-        <v>0.8395921807744173</v>
+        <v>0.8231668186071204</v>
       </c>
       <c r="D18">
-        <v>0.01041321539232776</v>
+        <v>0.1518863226913538</v>
       </c>
       <c r="E18">
-        <v>0.04956460382452654</v>
+        <v>0.08867164331509159</v>
       </c>
       <c r="F18">
-        <v>3.127063012882132</v>
+        <v>0.809903285915297</v>
       </c>
       <c r="G18">
-        <v>0.0007871475921667972</v>
+        <v>0.0007860409966151728</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1106990726307089</v>
+        <v>0.07333469929129421</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8870455864106361</v>
+        <v>0.979565504688388</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.243666168594743</v>
+        <v>1.81783944489311</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.582918498344611</v>
+        <v>3.532848652472069</v>
       </c>
       <c r="C19">
-        <v>0.831744611540131</v>
+        <v>0.8163206893434278</v>
       </c>
       <c r="D19">
-        <v>0.01036063943376497</v>
+        <v>0.1508553599059326</v>
       </c>
       <c r="E19">
-        <v>0.04935074060844968</v>
+        <v>0.08824808093052994</v>
       </c>
       <c r="F19">
-        <v>3.106229524402977</v>
+        <v>0.806379822905285</v>
       </c>
       <c r="G19">
-        <v>0.0007878819514116374</v>
+        <v>0.0007864399703357559</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1102026496715425</v>
+        <v>0.073168153455061</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8790198130841702</v>
+        <v>0.9710522150214942</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.228511190140821</v>
+        <v>1.810926054949675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.734161442425204</v>
+        <v>3.672671916080219</v>
       </c>
       <c r="C20">
-        <v>0.8671637933273075</v>
+        <v>0.8471471756246274</v>
       </c>
       <c r="D20">
-        <v>0.01059807863711448</v>
+        <v>0.1555032371934146</v>
       </c>
       <c r="E20">
-        <v>0.05031901663484462</v>
+        <v>0.09016441774111428</v>
       </c>
       <c r="F20">
-        <v>3.20060550674188</v>
+        <v>0.8224221021658593</v>
       </c>
       <c r="G20">
-        <v>0.000784582457913301</v>
+        <v>0.0007846495789357898</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1124551151968376</v>
+        <v>0.07393277904067119</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9152552607639706</v>
+        <v>1.009403590469127</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.297176444562396</v>
+        <v>1.842555880055272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.251287192096527</v>
+        <v>4.144730932164634</v>
       </c>
       <c r="C21">
-        <v>0.9881907231993807</v>
+        <v>0.9510823672712831</v>
       </c>
       <c r="D21">
-        <v>0.01141232673642278</v>
+        <v>0.171276164788452</v>
       </c>
       <c r="E21">
-        <v>0.05368157556139508</v>
+        <v>0.09679121356432319</v>
       </c>
       <c r="F21">
-        <v>3.529491659066423</v>
+        <v>0.8797498914143631</v>
       </c>
       <c r="G21">
-        <v>0.0007735753529792851</v>
+        <v>0.0007787190941128763</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.120370430746803</v>
+        <v>0.07677904707292527</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.039277221419368</v>
+        <v>1.139040096744637</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.536716553660227</v>
+        <v>1.958378591430829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.597025339272932</v>
+        <v>4.455241867008851</v>
       </c>
       <c r="C22">
-        <v>1.069058437675125</v>
+        <v>1.019337523754643</v>
       </c>
       <c r="D22">
-        <v>0.01195916726782364</v>
+        <v>0.1817131292383891</v>
       </c>
       <c r="E22">
-        <v>0.05596926996543061</v>
+        <v>0.1012734107942599</v>
       </c>
       <c r="F22">
-        <v>3.754400454693808</v>
+        <v>0.9199848609496968</v>
       </c>
       <c r="G22">
-        <v>0.0007664241209589534</v>
+        <v>0.0007749025643487817</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1258331322524739</v>
+        <v>0.07886123588623661</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.122292042119199</v>
+        <v>1.224436695218515</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.700740644134228</v>
+        <v>2.041793842402825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.411713448659668</v>
+        <v>4.289313863995574</v>
       </c>
       <c r="C23">
-        <v>1.025717873455562</v>
+        <v>0.982874640022203</v>
       </c>
       <c r="D23">
-        <v>0.01166579487624197</v>
+        <v>0.176130192117455</v>
       </c>
       <c r="E23">
-        <v>0.05473945282188453</v>
+        <v>0.09886660992390262</v>
       </c>
       <c r="F23">
-        <v>3.633370342409478</v>
+        <v>0.8982431690231465</v>
       </c>
       <c r="G23">
-        <v>0.0007702380819243348</v>
+        <v>0.0007769343484787095</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1228889808744071</v>
+        <v>0.07772859236035146</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.07778811457738</v>
+        <v>1.178791468760863</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.612453392678063</v>
+        <v>1.996527127795218</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.725824724375741</v>
+        <v>3.664985673013405</v>
       </c>
       <c r="C24">
-        <v>0.8652117491047875</v>
+        <v>0.8454531083251879</v>
       </c>
       <c r="D24">
-        <v>0.01058498309237521</v>
+        <v>0.155247436939959</v>
       </c>
       <c r="E24">
-        <v>0.0502654529477482</v>
+        <v>0.09005850058030163</v>
       </c>
       <c r="F24">
-        <v>3.195381235658886</v>
+        <v>0.8215287609642701</v>
       </c>
       <c r="G24">
-        <v>0.0007847633157732398</v>
+        <v>0.0007847475692677103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1123301869042237</v>
+        <v>0.07388978402461888</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9132574464965657</v>
+        <v>1.007294795420719</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.293374548041868</v>
+        <v>1.84078445475771</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.012643318111145</v>
+        <v>2.998218938736613</v>
       </c>
       <c r="C25">
-        <v>0.6980626552280285</v>
+        <v>0.6982673851094319</v>
       </c>
       <c r="D25">
-        <v>0.009467705511220004</v>
+        <v>0.1332000450022406</v>
       </c>
       <c r="E25">
-        <v>0.04577282333834276</v>
+        <v>0.08113764434742166</v>
       </c>
       <c r="F25">
-        <v>2.758469889017334</v>
+        <v>0.749322763711433</v>
       </c>
       <c r="G25">
-        <v>0.0008007137703482206</v>
+        <v>0.0007934553175224169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1019940721068338</v>
+        <v>0.07060537328804628</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7425694789284805</v>
+        <v>0.824628871833724</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.975790018257968</v>
+        <v>1.702153781674582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.511032400900774</v>
+        <v>2.489482375249281</v>
       </c>
       <c r="C2">
-        <v>0.590412876225372</v>
+        <v>0.694098881281775</v>
       </c>
       <c r="D2">
-        <v>0.117300427808928</v>
+        <v>0.1594499319063232</v>
       </c>
       <c r="E2">
-        <v>0.07499715074964897</v>
+        <v>0.0831967764078847</v>
       </c>
       <c r="F2">
-        <v>0.703867746715062</v>
+        <v>0.4665401506426718</v>
       </c>
       <c r="G2">
-        <v>0.0008001339932812926</v>
+        <v>0.2363312317720769</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001367709807781115</v>
       </c>
       <c r="J2">
-        <v>0.06882588695344438</v>
+        <v>0.2268397378991622</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1619648476186164</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06381112768765007</v>
       </c>
       <c r="M2">
-        <v>0.6915375429225605</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.621527965926674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7198376552087282</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9251023486294372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.182318179963772</v>
+        <v>2.17172389140876</v>
       </c>
       <c r="C3">
-        <v>0.5174734444742626</v>
+        <v>0.6121920769779479</v>
       </c>
       <c r="D3">
-        <v>0.1066986615318939</v>
+        <v>0.1457738264841879</v>
       </c>
       <c r="E3">
-        <v>0.07107054594976958</v>
+        <v>0.079124242175034</v>
       </c>
       <c r="F3">
-        <v>0.6772604628362942</v>
+        <v>0.4529006504357511</v>
       </c>
       <c r="G3">
-        <v>0.0008048389001364035</v>
+        <v>0.2293701085641686</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0007168658058480659</v>
       </c>
       <c r="J3">
-        <v>0.06797435720904232</v>
+        <v>0.2291860875374994</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1733717954383645</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06360341618740506</v>
       </c>
       <c r="M3">
-        <v>0.601953293340209</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.578553136202714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6274367234589349</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9149178857519331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980943235588711</v>
+        <v>1.976244991158353</v>
       </c>
       <c r="C4">
-        <v>0.4727151787537025</v>
+        <v>0.5622300496324613</v>
       </c>
       <c r="D4">
-        <v>0.1002643777503494</v>
+        <v>0.1375379229734364</v>
       </c>
       <c r="E4">
-        <v>0.06876573194679736</v>
+        <v>0.07675552139251707</v>
       </c>
       <c r="F4">
-        <v>0.6628085804996289</v>
+        <v>0.4453890580024336</v>
       </c>
       <c r="G4">
-        <v>0.0008078195435744442</v>
+        <v>0.2256752278295835</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005068657067623938</v>
       </c>
       <c r="J4">
-        <v>0.0676129639126799</v>
+        <v>0.2310141113601674</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1808174698241949</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0636255014333571</v>
       </c>
       <c r="M4">
-        <v>0.5471723122943004</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.557400940211181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5708078864917354</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9106948179686469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.89896140882243</v>
+        <v>1.896307653472292</v>
       </c>
       <c r="C5">
-        <v>0.4544760867575803</v>
+        <v>0.5429794634965504</v>
       </c>
       <c r="D5">
-        <v>0.09765988116643598</v>
+        <v>0.1342942386360306</v>
       </c>
       <c r="E5">
-        <v>0.06785184976252978</v>
+        <v>0.07582248627287314</v>
       </c>
       <c r="F5">
-        <v>0.657367487012813</v>
+        <v>0.4421223005083803</v>
       </c>
       <c r="G5">
-        <v>0.00080905777131038</v>
+        <v>0.2239669617899764</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005296906652265676</v>
       </c>
       <c r="J5">
-        <v>0.06750442291640724</v>
+        <v>0.2316727583216434</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1837915970465538</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06364501773347087</v>
       </c>
       <c r="M5">
-        <v>0.5248945065600239</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.550024973526263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5479953753117144</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9083613359007074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.885352253915784</v>
+        <v>1.882816050431018</v>
       </c>
       <c r="C6">
-        <v>0.4514473349492505</v>
+        <v>0.5410559326575708</v>
       </c>
       <c r="D6">
-        <v>0.09722842588898573</v>
+        <v>0.1338484419087962</v>
       </c>
       <c r="E6">
-        <v>0.06770159345973426</v>
+        <v>0.07567006490132044</v>
       </c>
       <c r="F6">
-        <v>0.656490335943424</v>
+        <v>0.4410872751435875</v>
       </c>
       <c r="G6">
-        <v>0.0008092648171711731</v>
+        <v>0.2232753404231715</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006212852095366372</v>
       </c>
       <c r="J6">
-        <v>0.06748868621249215</v>
+        <v>0.2315673397792466</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1840883109780922</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06361912569281003</v>
       </c>
       <c r="M6">
-        <v>0.5211977724370342</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.548873271035376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5445064018879791</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9066589049419349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979837319996022</v>
+        <v>1.974588348173484</v>
       </c>
       <c r="C7">
-        <v>0.4724692071358731</v>
+        <v>0.5654441444300176</v>
       </c>
       <c r="D7">
-        <v>0.1002291834166229</v>
+        <v>0.1377414231374559</v>
       </c>
       <c r="E7">
-        <v>0.06875330609731733</v>
+        <v>0.07674464462662201</v>
       </c>
       <c r="F7">
-        <v>0.6627334185632208</v>
+        <v>0.4439663893714325</v>
       </c>
       <c r="G7">
-        <v>0.0008078361465687983</v>
+        <v>0.2245156634449401</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007243903261535678</v>
       </c>
       <c r="J7">
-        <v>0.0676113456714944</v>
+        <v>0.230421935570142</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1803043389982548</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0635405314263835</v>
       </c>
       <c r="M7">
-        <v>0.5468716935551967</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.557296522555532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5713150842067662</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9069948925003075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.397575136155638</v>
+        <v>2.379216430174154</v>
       </c>
       <c r="C8">
-        <v>0.5652537165230456</v>
+        <v>0.6704286510918962</v>
       </c>
       <c r="D8">
-        <v>0.1136284530624039</v>
+        <v>0.1550279463677242</v>
       </c>
       <c r="E8">
-        <v>0.07362039761622441</v>
+        <v>0.08176721895968342</v>
       </c>
       <c r="F8">
-        <v>0.6942862930311051</v>
+        <v>0.4598346472561019</v>
       </c>
       <c r="G8">
-        <v>0.0008017375016546313</v>
+        <v>0.2323072450563402</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001360891702447908</v>
       </c>
       <c r="J8">
-        <v>0.06849761439414337</v>
+        <v>0.2267775429393737</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.165089830309225</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0635962638485239</v>
       </c>
       <c r="M8">
-        <v>0.6605958421832199</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.605578905406986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6890365051119005</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.916325524718701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.222112564752592</v>
+        <v>3.171370520587118</v>
       </c>
       <c r="C9">
-        <v>0.7477427643987937</v>
+        <v>0.8729988945736409</v>
       </c>
       <c r="D9">
-        <v>0.1405700044766292</v>
+        <v>0.1898564388811224</v>
       </c>
       <c r="E9">
-        <v>0.08407167322652143</v>
+        <v>0.09272601137910996</v>
       </c>
       <c r="F9">
-        <v>0.772361749233454</v>
+        <v>0.5007264771136022</v>
       </c>
       <c r="G9">
-        <v>0.0007904822752290379</v>
+        <v>0.254576162515157</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003928309394582996</v>
       </c>
       <c r="J9">
-        <v>0.07160630239940602</v>
+        <v>0.2239285161183346</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1398996097803415</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06511531047560837</v>
       </c>
       <c r="M9">
-        <v>0.8859046869907914</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.745278919381292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9195401655097015</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9583700189004389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.833817960871102</v>
+        <v>3.752584669953762</v>
       </c>
       <c r="C10">
-        <v>0.8826510092532658</v>
+        <v>1.0260199838049</v>
       </c>
       <c r="D10">
-        <v>0.1608740113847773</v>
+        <v>0.2165459963085965</v>
       </c>
       <c r="E10">
-        <v>0.09240001555872368</v>
+        <v>0.1015570260123972</v>
       </c>
       <c r="F10">
-        <v>0.8414529053121811</v>
+        <v>0.5352459228503079</v>
       </c>
       <c r="G10">
-        <v>0.0007826061651286679</v>
+        <v>0.2739460661500317</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007127595509645701</v>
       </c>
       <c r="J10">
-        <v>0.07485942188309735</v>
+        <v>0.2237510271164211</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1236531530923894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0670650334949805</v>
       </c>
       <c r="M10">
-        <v>1.053630636205376</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.880554311197869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.090419877757</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9996086020593538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114032435659965</v>
+        <v>4.016141379958185</v>
       </c>
       <c r="C11">
-        <v>0.9443296572093516</v>
+        <v>1.102230787507324</v>
       </c>
       <c r="D11">
-        <v>0.1702468645529081</v>
+        <v>0.2293425194032181</v>
       </c>
       <c r="E11">
-        <v>0.09635322832840032</v>
+        <v>0.1057720450913244</v>
       </c>
       <c r="F11">
-        <v>0.8758783694133854</v>
+        <v>0.5500114404387659</v>
       </c>
       <c r="G11">
-        <v>0.0007790998354242612</v>
+        <v>0.2818323367181037</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009232031164915</v>
       </c>
       <c r="J11">
-        <v>0.07658200365374057</v>
+        <v>0.2232551455061653</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1160650252042377</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06803429319920085</v>
       </c>
       <c r="M11">
-        <v>1.130602605347008</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.950436443986149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.169864835531627</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.015529063047708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.220480360094655</v>
+        <v>4.116503772954786</v>
       </c>
       <c r="C12">
-        <v>0.9677412189128063</v>
+        <v>1.128058319662159</v>
       </c>
       <c r="D12">
-        <v>0.1738179976031802</v>
+        <v>0.2340088407374594</v>
       </c>
       <c r="E12">
-        <v>0.09787597805096837</v>
+        <v>0.1073951752228055</v>
       </c>
       <c r="F12">
-        <v>0.8893857753171943</v>
+        <v>0.5569836580361169</v>
       </c>
       <c r="G12">
-        <v>0.0007777823199491274</v>
+        <v>0.2859330385214207</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009899784299021164</v>
       </c>
       <c r="J12">
-        <v>0.07727213015107992</v>
+        <v>0.2236561890130986</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1137191511010016</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0685053122366952</v>
       </c>
       <c r="M12">
-        <v>1.159863912261358</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.978213202987405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.199286288530871</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.025151785562514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.197538957635288</v>
+        <v>4.094991790791653</v>
       </c>
       <c r="C13">
-        <v>0.9626964815476811</v>
+        <v>1.121856244531216</v>
       </c>
       <c r="D13">
-        <v>0.1730478817806329</v>
+        <v>0.2329582835224357</v>
       </c>
       <c r="E13">
-        <v>0.09754684627645815</v>
+        <v>0.1070436861082342</v>
       </c>
       <c r="F13">
-        <v>0.8864550752728633</v>
+        <v>0.5557103895552302</v>
       </c>
       <c r="G13">
-        <v>0.000778065627014227</v>
+        <v>0.2852387638603986</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009715208423489941</v>
       </c>
       <c r="J13">
-        <v>0.07712176785722846</v>
+        <v>0.2236677163383263</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1143062908048957</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06841655765408206</v>
       </c>
       <c r="M13">
-        <v>1.153556623679364</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.972170627444342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.192801605795623</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.023684812308886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.122782877388772</v>
+        <v>4.024441882403437</v>
       </c>
       <c r="C14">
-        <v>0.9462545684415318</v>
+        <v>1.104083924253871</v>
       </c>
       <c r="D14">
-        <v>0.1705402128379347</v>
+        <v>0.2297070178441345</v>
       </c>
       <c r="E14">
-        <v>0.09647797719004814</v>
+        <v>0.105904736245666</v>
       </c>
       <c r="F14">
-        <v>0.8769799439051411</v>
+        <v>0.550681852054808</v>
       </c>
       <c r="G14">
-        <v>0.0007789912416174261</v>
+        <v>0.2822498066337218</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.009269285222474721</v>
       </c>
       <c r="J14">
-        <v>0.0766380051886415</v>
+        <v>0.2233296629109205</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1159067804831597</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06807840506125373</v>
       </c>
       <c r="M14">
-        <v>1.133007569634387</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.952694635182127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.172222334923944</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.016577506744284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.077038251117642</v>
+        <v>3.981027542972697</v>
       </c>
       <c r="C15">
-        <v>0.9361909497152396</v>
+        <v>1.094461169215379</v>
       </c>
       <c r="D15">
-        <v>0.169007105847669</v>
+        <v>0.227806895286804</v>
       </c>
       <c r="E15">
-        <v>0.09582668259689697</v>
+        <v>0.105212116702976</v>
       </c>
       <c r="F15">
-        <v>0.8712387785927689</v>
+        <v>0.5471604767707561</v>
       </c>
       <c r="G15">
-        <v>0.0007795595195468889</v>
+        <v>0.2800530544551165</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009082814442931131</v>
       </c>
       <c r="J15">
-        <v>0.07634670286116574</v>
+        <v>0.2229331440527531</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1167294985124379</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06784764363288431</v>
       </c>
       <c r="M15">
-        <v>1.120436015639385</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.940939682023355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.159911251839247</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.011051502259477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.81554920637592</v>
+        <v>3.733630877128348</v>
       </c>
       <c r="C16">
-        <v>0.8786272740849483</v>
+        <v>1.031535936457658</v>
       </c>
       <c r="D16">
-        <v>0.1602644044856874</v>
+        <v>0.2164413404852468</v>
       </c>
       <c r="E16">
-        <v>0.09214515050101824</v>
+        <v>0.1012945085441253</v>
       </c>
       <c r="F16">
-        <v>0.8392667833117855</v>
+        <v>0.5303604046964807</v>
       </c>
       <c r="G16">
-        <v>0.0007828367894374172</v>
+        <v>0.2702000747441815</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007619843348824595</v>
       </c>
       <c r="J16">
-        <v>0.07475197546867207</v>
+        <v>0.2221012427538795</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1227107280867532</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06676928111680169</v>
       </c>
       <c r="M16">
-        <v>1.048615289404928</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.876164794167067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.087645207985659</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9881970711961685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.655671655800802</v>
+        <v>3.581919017488985</v>
       </c>
       <c r="C17">
-        <v>0.8434001981721337</v>
+        <v>0.9930623389746245</v>
       </c>
       <c r="D17">
-        <v>0.1549375101970156</v>
+        <v>0.2095305250584261</v>
       </c>
       <c r="E17">
-        <v>0.08993024107655145</v>
+        <v>0.09894175825038332</v>
       </c>
       <c r="F17">
-        <v>0.8204480048888456</v>
+        <v>0.5204090808648232</v>
       </c>
       <c r="G17">
-        <v>0.0007848663775250014</v>
+        <v>0.2644083069830714</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006811708085391111</v>
       </c>
       <c r="J17">
-        <v>0.07383783234639907</v>
+        <v>0.2217380321053355</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1265444926605834</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06616515867139583</v>
       </c>
       <c r="M17">
-        <v>1.004739493779425</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.838642938996031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.043397050565815</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9750181855356033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.563893856019604</v>
+        <v>3.495196389731575</v>
       </c>
       <c r="C18">
-        <v>0.8231668186071204</v>
+        <v>0.9678030878163213</v>
       </c>
       <c r="D18">
-        <v>0.1518863226913538</v>
+        <v>0.2053572964086641</v>
       </c>
       <c r="E18">
-        <v>0.08867164331509159</v>
+        <v>0.09760386560750689</v>
       </c>
       <c r="F18">
-        <v>0.809903285915297</v>
+        <v>0.5160058321216425</v>
       </c>
       <c r="G18">
-        <v>0.0007860409966151728</v>
+        <v>0.2621486331884739</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006150881257314111</v>
       </c>
       <c r="J18">
-        <v>0.07333469929129421</v>
+        <v>0.2220944630974913</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1292465544466967</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06591007112620773</v>
       </c>
       <c r="M18">
-        <v>0.979565504688388</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.81783944489311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.017245881086573</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9708927028463279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.532848652472069</v>
+        <v>3.465432254941675</v>
       </c>
       <c r="C19">
-        <v>0.8163206893434278</v>
+        <v>0.9617061493144377</v>
       </c>
       <c r="D19">
-        <v>0.1508553599059326</v>
+        <v>0.2041177162483194</v>
       </c>
       <c r="E19">
-        <v>0.08824808093052994</v>
+        <v>0.09715591059919504</v>
       </c>
       <c r="F19">
-        <v>0.806379822905285</v>
+        <v>0.5136145062907573</v>
       </c>
       <c r="G19">
-        <v>0.0007864399703357559</v>
+        <v>0.2606405718344291</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006104397241093906</v>
       </c>
       <c r="J19">
-        <v>0.073168153455061</v>
+        <v>0.2218283565890005</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1298329855282248</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06577162189739028</v>
       </c>
       <c r="M19">
-        <v>0.9710522150214942</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.810926054949675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.00895871331759</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9671107784378279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.672671916080219</v>
+        <v>3.598108375851893</v>
       </c>
       <c r="C20">
-        <v>0.8471471756246274</v>
+        <v>0.9969037056711727</v>
       </c>
       <c r="D20">
-        <v>0.1555032371934146</v>
+        <v>0.2102466373240475</v>
       </c>
       <c r="E20">
-        <v>0.09016441774111428</v>
+        <v>0.09919013331725779</v>
       </c>
       <c r="F20">
-        <v>0.8224221021658593</v>
+        <v>0.5215489945206642</v>
       </c>
       <c r="G20">
-        <v>0.0007846495789357898</v>
+        <v>0.2650925710662975</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006876369781061875</v>
       </c>
       <c r="J20">
-        <v>0.07393277904067119</v>
+        <v>0.2218114283701382</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1261644933212871</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06623298215364315</v>
       </c>
       <c r="M20">
-        <v>1.009403590469127</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.842555880055272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.048047055563721</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.97663747462488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144730932164634</v>
+        <v>4.044574812098404</v>
       </c>
       <c r="C21">
-        <v>0.9510823672712831</v>
+        <v>1.112863386160654</v>
       </c>
       <c r="D21">
-        <v>0.171276164788452</v>
+        <v>0.2309069288172338</v>
       </c>
       <c r="E21">
-        <v>0.09679121356432319</v>
+        <v>0.1062416124821226</v>
       </c>
       <c r="F21">
-        <v>0.8797498914143631</v>
+        <v>0.5508223269217254</v>
       </c>
       <c r="G21">
-        <v>0.0007787190941128763</v>
+        <v>0.2820289975855559</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00962733172259167</v>
       </c>
       <c r="J21">
-        <v>0.07677904707292527</v>
+        <v>0.2228569701408247</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1149521803146438</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06809716285425793</v>
       </c>
       <c r="M21">
-        <v>1.139040096744637</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.958378591430829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.179081424031153</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.015138282999146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.455241867008851</v>
+        <v>4.337381902471691</v>
       </c>
       <c r="C22">
-        <v>1.019337523754643</v>
+        <v>1.184586938405801</v>
       </c>
       <c r="D22">
-        <v>0.1817131292383891</v>
+        <v>0.2443096040870074</v>
       </c>
       <c r="E22">
-        <v>0.1012734107942599</v>
+        <v>0.1110198371172508</v>
       </c>
       <c r="F22">
-        <v>0.9199848609496968</v>
+        <v>0.5728657512127526</v>
       </c>
       <c r="G22">
-        <v>0.0007749025643487817</v>
+        <v>0.2953619505034482</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01143862870488821</v>
       </c>
       <c r="J22">
-        <v>0.07886123588623661</v>
+        <v>0.2247658689799152</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1087965015090315</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06961359601930184</v>
       </c>
       <c r="M22">
-        <v>1.224436695218515</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.041793842402825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.263994523987449</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.047659160484869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.289313863995574</v>
+        <v>4.181783690396912</v>
       </c>
       <c r="C23">
-        <v>0.982874640022203</v>
+        <v>1.141968274852218</v>
       </c>
       <c r="D23">
-        <v>0.176130192117455</v>
+        <v>0.2368395665184551</v>
       </c>
       <c r="E23">
-        <v>0.09886660992390262</v>
+        <v>0.1084491682993054</v>
       </c>
       <c r="F23">
-        <v>0.8982431690231465</v>
+        <v>0.5625884164634627</v>
       </c>
       <c r="G23">
-        <v>0.0007769343484787095</v>
+        <v>0.2894822182043484</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01018461707537366</v>
       </c>
       <c r="J23">
-        <v>0.07772859236035146</v>
+        <v>0.2243859863700806</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1126101480153245</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06888134820993486</v>
       </c>
       <c r="M23">
-        <v>1.178791468760863</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.996527127795218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.217659769176223</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.03426145974197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664985673013405</v>
+        <v>3.591897724089733</v>
       </c>
       <c r="C24">
-        <v>0.8454531083251879</v>
+        <v>0.9884515136546668</v>
       </c>
       <c r="D24">
-        <v>0.155247436939959</v>
+        <v>0.2094571931338862</v>
       </c>
       <c r="E24">
-        <v>0.09005850058030163</v>
+        <v>0.09907221431506841</v>
       </c>
       <c r="F24">
-        <v>0.8215287609642701</v>
+        <v>0.5235628750665953</v>
       </c>
       <c r="G24">
-        <v>0.0007847475692677103</v>
+        <v>0.2668642450538457</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006406485057824263</v>
       </c>
       <c r="J24">
-        <v>0.07388978402461888</v>
+        <v>0.2228638245931691</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1272660423471343</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0663544359365531</v>
       </c>
       <c r="M24">
-        <v>1.007294795420719</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.84078445475771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.044401156757175</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.982590135030236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.998218938736613</v>
+        <v>2.956162997488548</v>
       </c>
       <c r="C25">
-        <v>0.6982673851094319</v>
+        <v>0.8242611590389117</v>
       </c>
       <c r="D25">
-        <v>0.1332000450022406</v>
+        <v>0.1807238642140732</v>
       </c>
       <c r="E25">
-        <v>0.08113764434742166</v>
+        <v>0.0896369791984597</v>
       </c>
       <c r="F25">
-        <v>0.749322763711433</v>
+        <v>0.4863414844200875</v>
       </c>
       <c r="G25">
-        <v>0.0007934553175224169</v>
+        <v>0.2459311451264909</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003409048892861755</v>
       </c>
       <c r="J25">
-        <v>0.07060537328804628</v>
+        <v>0.2232640671443278</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1453550700441273</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06440917224427523</v>
       </c>
       <c r="M25">
-        <v>0.824628871833724</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.702153781674582</v>
+        <v>0.8585113435511573</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9384421380073462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.489482375249281</v>
+        <v>2.489881405045196</v>
       </c>
       <c r="C2">
-        <v>0.694098881281775</v>
+        <v>0.7033871800321378</v>
       </c>
       <c r="D2">
-        <v>0.1594499319063232</v>
+        <v>0.1605802044020237</v>
       </c>
       <c r="E2">
-        <v>0.0831967764078847</v>
+        <v>0.08307458346619612</v>
       </c>
       <c r="F2">
-        <v>0.4665401506426718</v>
+        <v>0.4596241186865626</v>
       </c>
       <c r="G2">
-        <v>0.2363312317720769</v>
+        <v>0.2132659916619843</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001367709807781115</v>
+        <v>0.001626661985945965</v>
       </c>
       <c r="J2">
-        <v>0.2268397378991622</v>
+        <v>0.2625535846826637</v>
       </c>
       <c r="K2">
-        <v>0.1619648476186164</v>
+        <v>0.156082817585288</v>
       </c>
       <c r="L2">
-        <v>0.06381112768765007</v>
+        <v>0.10103853097851</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02871317718815458</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06321480047815342</v>
       </c>
       <c r="O2">
-        <v>0.7198376552087282</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9251023486294372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7242417069209068</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9070204094589656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.17172389140876</v>
+        <v>2.174439126645495</v>
       </c>
       <c r="C3">
-        <v>0.6121920769779479</v>
+        <v>0.613365007080148</v>
       </c>
       <c r="D3">
-        <v>0.1457738264841879</v>
+        <v>0.1465708274703417</v>
       </c>
       <c r="E3">
-        <v>0.079124242175034</v>
+        <v>0.07905214921105497</v>
       </c>
       <c r="F3">
-        <v>0.4529006504357511</v>
+        <v>0.4475752813771905</v>
       </c>
       <c r="G3">
-        <v>0.2293701085641686</v>
+        <v>0.2077228414608143</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0007168658058480659</v>
+        <v>0.0009618537719142672</v>
       </c>
       <c r="J3">
-        <v>0.2291860875374994</v>
+        <v>0.2634082422317405</v>
       </c>
       <c r="K3">
-        <v>0.1733717954383645</v>
+        <v>0.1669827525644498</v>
       </c>
       <c r="L3">
-        <v>0.06360341618740506</v>
+        <v>0.1068896840244147</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03207268273723018</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06315260064548056</v>
       </c>
       <c r="O3">
-        <v>0.6274367234589349</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9149178857519331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6302335603820808</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9004408603154985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.976244991158353</v>
+        <v>1.980280588309768</v>
       </c>
       <c r="C4">
-        <v>0.5622300496324613</v>
+        <v>0.5586286515103041</v>
       </c>
       <c r="D4">
-        <v>0.1375379229734364</v>
+        <v>0.1381508090659906</v>
       </c>
       <c r="E4">
-        <v>0.07675552139251707</v>
+        <v>0.07671770278814094</v>
       </c>
       <c r="F4">
-        <v>0.4453890580024336</v>
+        <v>0.4408973081346588</v>
       </c>
       <c r="G4">
-        <v>0.2256752278295835</v>
+        <v>0.2048888148341277</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005068657067623938</v>
+        <v>0.000711068462198039</v>
       </c>
       <c r="J4">
-        <v>0.2310141113601674</v>
+        <v>0.2641140889747433</v>
       </c>
       <c r="K4">
-        <v>0.1808174698241949</v>
+        <v>0.1740402919249853</v>
       </c>
       <c r="L4">
-        <v>0.0636255014333571</v>
+        <v>0.1107709036653066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03463040436025866</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06326062214870731</v>
       </c>
       <c r="O4">
-        <v>0.5708078864917354</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9106948179686469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5726335771056057</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8980254045526408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.896307653472292</v>
+        <v>1.900860728328155</v>
       </c>
       <c r="C5">
-        <v>0.5429794634965504</v>
+        <v>0.5374707375919456</v>
       </c>
       <c r="D5">
-        <v>0.1342942386360306</v>
+        <v>0.134835741264169</v>
       </c>
       <c r="E5">
-        <v>0.07582248627287314</v>
+        <v>0.07579951043348743</v>
       </c>
       <c r="F5">
-        <v>0.4421223005083803</v>
+        <v>0.4379454498231894</v>
       </c>
       <c r="G5">
-        <v>0.2239669617899764</v>
+        <v>0.2035415794166653</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005296906652265676</v>
+        <v>0.0007221849252276868</v>
       </c>
       <c r="J5">
-        <v>0.2316727583216434</v>
+        <v>0.2642625929654585</v>
       </c>
       <c r="K5">
-        <v>0.1837915970465538</v>
+        <v>0.1768444987691327</v>
       </c>
       <c r="L5">
-        <v>0.06364501773347087</v>
+        <v>0.1123147399846118</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03578253730316711</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06331493092075391</v>
       </c>
       <c r="O5">
-        <v>0.5479953753117144</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9083613359007074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5494252323190665</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.896357930612325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.882816050431018</v>
+        <v>1.887456840134604</v>
       </c>
       <c r="C6">
-        <v>0.5410559326575708</v>
+        <v>0.5352165497802162</v>
       </c>
       <c r="D6">
-        <v>0.1338484419087962</v>
+        <v>0.1343765758056605</v>
       </c>
       <c r="E6">
-        <v>0.07567006490132044</v>
+        <v>0.07564960645456509</v>
       </c>
       <c r="F6">
-        <v>0.4410872751435875</v>
+        <v>0.4369729954212787</v>
       </c>
       <c r="G6">
-        <v>0.2232753404231715</v>
+        <v>0.2029261566083846</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006212852095366372</v>
+        <v>0.0008281599005179885</v>
       </c>
       <c r="J6">
-        <v>0.2315673397792466</v>
+        <v>0.2640660503238763</v>
       </c>
       <c r="K6">
-        <v>0.1840883109780922</v>
+        <v>0.1771205217954313</v>
       </c>
       <c r="L6">
-        <v>0.06361912569281003</v>
+        <v>0.1124420569892539</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03596550940051224</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06329551623712248</v>
       </c>
       <c r="O6">
-        <v>0.5445064018879791</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9066589049419349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5458649463558984</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8947949731588238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.974588348173484</v>
+        <v>1.978614859681358</v>
       </c>
       <c r="C7">
-        <v>0.5654441444300176</v>
+        <v>0.5612969840357209</v>
       </c>
       <c r="D7">
-        <v>0.1377414231374559</v>
+        <v>0.1385314133232356</v>
       </c>
       <c r="E7">
-        <v>0.07674464462662201</v>
+        <v>0.07674103366868934</v>
       </c>
       <c r="F7">
-        <v>0.4439663893714325</v>
+        <v>0.438749089430658</v>
       </c>
       <c r="G7">
-        <v>0.2245156634449401</v>
+        <v>0.205886165853407</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0007243903261535678</v>
+        <v>0.0009707671238379234</v>
       </c>
       <c r="J7">
-        <v>0.230421935570142</v>
+        <v>0.26023637657417</v>
       </c>
       <c r="K7">
-        <v>0.1803043389982548</v>
+        <v>0.1733811952301751</v>
       </c>
       <c r="L7">
-        <v>0.0635405314263835</v>
+        <v>0.1103284253024999</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03457431944103173</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06316155298128123</v>
       </c>
       <c r="O7">
-        <v>0.5713150842067662</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9069948925003075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5730959286764801</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8923612666865779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379216430174154</v>
+        <v>2.380366446674316</v>
       </c>
       <c r="C8">
-        <v>0.6704286510918962</v>
+        <v>0.6752337169683074</v>
       </c>
       <c r="D8">
-        <v>0.1550279463677242</v>
+        <v>0.1566461010327771</v>
       </c>
       <c r="E8">
-        <v>0.08176721895968342</v>
+        <v>0.08177565877226201</v>
       </c>
       <c r="F8">
-        <v>0.4598346472561019</v>
+        <v>0.4510191670126318</v>
       </c>
       <c r="G8">
-        <v>0.2323072450563402</v>
+        <v>0.2168547943546244</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001360891702447908</v>
+        <v>0.001669929472926768</v>
       </c>
       <c r="J8">
-        <v>0.2267775429393737</v>
+        <v>0.2514265235815856</v>
       </c>
       <c r="K8">
-        <v>0.165089830309225</v>
+        <v>0.1585643754310988</v>
       </c>
       <c r="L8">
-        <v>0.0635962638485239</v>
+        <v>0.1023004824427147</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02954110155457457</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06299968096958963</v>
       </c>
       <c r="O8">
-        <v>0.6890365051119005</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.916325524718701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6927797519762038</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8928983553176408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.171370520587118</v>
+        <v>3.166020531358697</v>
       </c>
       <c r="C9">
-        <v>0.8729988945736409</v>
+        <v>0.8987811640591303</v>
       </c>
       <c r="D9">
-        <v>0.1898564388811224</v>
+        <v>0.1926035459149631</v>
       </c>
       <c r="E9">
-        <v>0.09272601137910996</v>
+        <v>0.09266228464032622</v>
       </c>
       <c r="F9">
-        <v>0.5007264771136022</v>
+        <v>0.4863620270121558</v>
       </c>
       <c r="G9">
-        <v>0.254576162515157</v>
+        <v>0.2374711478888543</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003928309394582996</v>
+        <v>0.004009347608007197</v>
       </c>
       <c r="J9">
-        <v>0.2239285161183346</v>
+        <v>0.2482032870087636</v>
       </c>
       <c r="K9">
-        <v>0.1398996097803415</v>
+        <v>0.1340538817162322</v>
       </c>
       <c r="L9">
-        <v>0.06511531047560837</v>
+        <v>0.08977770326281664</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02393207072413794</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.064120238397539</v>
       </c>
       <c r="O9">
-        <v>0.9195401655097015</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9583700189004389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9273296338917518</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9215967174936708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.752584669953762</v>
+        <v>3.741565865401753</v>
       </c>
       <c r="C10">
-        <v>1.0260199838049</v>
+        <v>1.065289037924117</v>
       </c>
       <c r="D10">
-        <v>0.2165459963085965</v>
+        <v>0.2213297975283552</v>
       </c>
       <c r="E10">
-        <v>0.1015570260123972</v>
+        <v>0.1016638970765804</v>
       </c>
       <c r="F10">
-        <v>0.5352459228503079</v>
+        <v>0.5115804991996598</v>
       </c>
       <c r="G10">
-        <v>0.2739460661500317</v>
+        <v>0.2684806922009031</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007127595509645701</v>
+        <v>0.0068264977183361</v>
       </c>
       <c r="J10">
-        <v>0.2237510271164211</v>
+        <v>0.2293599923406902</v>
       </c>
       <c r="K10">
-        <v>0.1236531530923894</v>
+        <v>0.1170886555756461</v>
       </c>
       <c r="L10">
-        <v>0.0670650334949805</v>
+        <v>0.08167294949876602</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02194219534099151</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06566799512484423</v>
       </c>
       <c r="O10">
-        <v>1.090419877757</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9996086020593538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.101001022161</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9389583172012266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.016141379958185</v>
+        <v>4.002096351359114</v>
       </c>
       <c r="C11">
-        <v>1.102230787507324</v>
+        <v>1.142617675256929</v>
       </c>
       <c r="D11">
-        <v>0.2293425194032181</v>
+        <v>0.2370656444219463</v>
       </c>
       <c r="E11">
-        <v>0.1057720450913244</v>
+        <v>0.1063315887913419</v>
       </c>
       <c r="F11">
-        <v>0.5500114404387659</v>
+        <v>0.5142201933603019</v>
       </c>
       <c r="G11">
-        <v>0.2818323367181037</v>
+        <v>0.3055915872509019</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.009232031164915</v>
+        <v>0.008734648148371882</v>
       </c>
       <c r="J11">
-        <v>0.2232551455061653</v>
+        <v>0.194688454463197</v>
       </c>
       <c r="K11">
-        <v>0.1160650252042377</v>
+        <v>0.1078711259634497</v>
       </c>
       <c r="L11">
-        <v>0.06803429319920085</v>
+        <v>0.0777653510183578</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02062271936014071</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06629458639340058</v>
       </c>
       <c r="O11">
-        <v>1.169864835531627</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.015529063047708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.181365806389266</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9231595373307755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.116503772954786</v>
+        <v>4.101238624639393</v>
       </c>
       <c r="C12">
-        <v>1.128058319662159</v>
+        <v>1.168201853272308</v>
       </c>
       <c r="D12">
-        <v>0.2340088407374594</v>
+        <v>0.2431195115350278</v>
       </c>
       <c r="E12">
-        <v>0.1073951752228055</v>
+        <v>0.1081767698889173</v>
       </c>
       <c r="F12">
-        <v>0.5569836580361169</v>
+        <v>0.5155111263724166</v>
       </c>
       <c r="G12">
-        <v>0.2859330385214207</v>
+        <v>0.3243903406183648</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.009899784299021164</v>
+        <v>0.009268191736159892</v>
       </c>
       <c r="J12">
-        <v>0.2236561890130986</v>
+        <v>0.1807773568622935</v>
       </c>
       <c r="K12">
-        <v>0.1137191511010016</v>
+        <v>0.1046715949759278</v>
       </c>
       <c r="L12">
-        <v>0.0685053122366952</v>
+        <v>0.07644782663822447</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02025906946111711</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06661234812087358</v>
       </c>
       <c r="O12">
-        <v>1.199286288530871</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.025151785562514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.211102680527389</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.917889988279498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.094991790791653</v>
+        <v>4.07998932971708</v>
       </c>
       <c r="C13">
-        <v>1.121856244531216</v>
+        <v>1.162080702537594</v>
       </c>
       <c r="D13">
-        <v>0.2329582835224357</v>
+        <v>0.2417576298029047</v>
       </c>
       <c r="E13">
-        <v>0.1070436861082342</v>
+        <v>0.1077751056008331</v>
       </c>
       <c r="F13">
-        <v>0.5557103895552302</v>
+        <v>0.5154919254765744</v>
       </c>
       <c r="G13">
-        <v>0.2852387638603986</v>
+        <v>0.3203635762959891</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.009715208423489941</v>
+        <v>0.009103755595386787</v>
       </c>
       <c r="J13">
-        <v>0.2236677163383263</v>
+        <v>0.1838525666225053</v>
       </c>
       <c r="K13">
-        <v>0.1143062908048957</v>
+        <v>0.1054298787444772</v>
       </c>
       <c r="L13">
-        <v>0.06841655765408206</v>
+        <v>0.07674884090888057</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0203699953563774</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06655697825189577</v>
       </c>
       <c r="O13">
-        <v>1.192801605795623</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.023684812308886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.204554666134399</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9196939642802278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.024441882403437</v>
+        <v>4.0102965307114</v>
       </c>
       <c r="C14">
-        <v>1.104083924253871</v>
+        <v>1.144463449625107</v>
       </c>
       <c r="D14">
-        <v>0.2297070178441345</v>
+        <v>0.2375387459166944</v>
       </c>
       <c r="E14">
-        <v>0.105904736245666</v>
+        <v>0.1064814975066035</v>
       </c>
       <c r="F14">
-        <v>0.550681852054808</v>
+        <v>0.5144376516565998</v>
       </c>
       <c r="G14">
-        <v>0.2822498066337218</v>
+        <v>0.3071428658612945</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.009269285222474721</v>
+        <v>0.008757110801080437</v>
       </c>
       <c r="J14">
-        <v>0.2233296629109205</v>
+        <v>0.1935840431561289</v>
       </c>
       <c r="K14">
-        <v>0.1159067804831597</v>
+        <v>0.1076379345520762</v>
       </c>
       <c r="L14">
-        <v>0.06807840506125373</v>
+        <v>0.07766474273821933</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02060659504726203</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0663262779877769</v>
       </c>
       <c r="O14">
-        <v>1.172222334923944</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.016577506744284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.183751256779303</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9230142866195621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.981027542972697</v>
+        <v>3.967404571083989</v>
       </c>
       <c r="C15">
-        <v>1.094461169215379</v>
+        <v>1.134853026853023</v>
       </c>
       <c r="D15">
-        <v>0.227806895286804</v>
+        <v>0.2350817946694832</v>
       </c>
       <c r="E15">
-        <v>0.105212116702976</v>
+        <v>0.1057009243466212</v>
       </c>
       <c r="F15">
-        <v>0.5471604767707561</v>
+        <v>0.5132435436273042</v>
       </c>
       <c r="G15">
-        <v>0.2800530544551165</v>
+        <v>0.2991725418194022</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009082814442931131</v>
+        <v>0.008648720779024011</v>
       </c>
       <c r="J15">
-        <v>0.2229331440527531</v>
+        <v>0.1993111058070198</v>
       </c>
       <c r="K15">
-        <v>0.1167294985124379</v>
+        <v>0.1088466836779913</v>
       </c>
       <c r="L15">
-        <v>0.06784764363288431</v>
+        <v>0.07818933749469403</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02068727997863995</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06615965588004258</v>
       </c>
       <c r="O15">
-        <v>1.159911251839247</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.011051502259477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.171291900995428</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9236232441937062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.733630877128348</v>
+        <v>3.722843547566868</v>
       </c>
       <c r="C16">
-        <v>1.031535936457658</v>
+        <v>1.070689114435197</v>
       </c>
       <c r="D16">
-        <v>0.2164413404852468</v>
+        <v>0.221061359603226</v>
       </c>
       <c r="E16">
-        <v>0.1012945085441253</v>
+        <v>0.1013785245719028</v>
       </c>
       <c r="F16">
-        <v>0.5303604046964807</v>
+        <v>0.5075526882213452</v>
       </c>
       <c r="G16">
-        <v>0.2702000747441815</v>
+        <v>0.2633389020779546</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.007619843348824595</v>
+        <v>0.007479893196762788</v>
       </c>
       <c r="J16">
-        <v>0.2221012427538795</v>
+        <v>0.2299078521850859</v>
       </c>
       <c r="K16">
-        <v>0.1227107280867532</v>
+        <v>0.116474130102775</v>
       </c>
       <c r="L16">
-        <v>0.06676928111680169</v>
+        <v>0.08151669692834318</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02151661073289635</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06540040517563384</v>
       </c>
       <c r="O16">
-        <v>1.087645207985659</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9881970711961685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.098118620913702</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9299420386508785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.581919017488985</v>
+        <v>3.572759935481997</v>
       </c>
       <c r="C17">
-        <v>0.9930623389746245</v>
+        <v>1.030352344344067</v>
       </c>
       <c r="D17">
-        <v>0.2095305250584261</v>
+        <v>0.2129708722993655</v>
       </c>
       <c r="E17">
-        <v>0.09894175825038332</v>
+        <v>0.09886102235075001</v>
       </c>
       <c r="F17">
-        <v>0.5204090808648232</v>
+        <v>0.5026590575638679</v>
       </c>
       <c r="G17">
-        <v>0.2644083069830714</v>
+        <v>0.2471917319681225</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.006811708085391111</v>
+        <v>0.006825644095100003</v>
       </c>
       <c r="J17">
-        <v>0.2217380321053355</v>
+        <v>0.2444132993149779</v>
       </c>
       <c r="K17">
-        <v>0.1265444926605834</v>
+        <v>0.1210106205207406</v>
       </c>
       <c r="L17">
-        <v>0.06616515867139583</v>
+        <v>0.08359062584247479</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02201620027224305</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06495619554096876</v>
       </c>
       <c r="O17">
-        <v>1.043397050565815</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9750181855356033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.053238897162274</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9300269217656449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.495196389731575</v>
+        <v>3.486921274644885</v>
       </c>
       <c r="C18">
-        <v>0.9678030878163213</v>
+        <v>1.003621611076852</v>
       </c>
       <c r="D18">
-        <v>0.2053572964086641</v>
+        <v>0.2082770610929572</v>
       </c>
       <c r="E18">
-        <v>0.09760386560750689</v>
+        <v>0.09745716946007477</v>
       </c>
       <c r="F18">
-        <v>0.5160058321216425</v>
+        <v>0.5004928194152427</v>
       </c>
       <c r="G18">
-        <v>0.2621486331884739</v>
+        <v>0.2407465953525616</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.006150881257314111</v>
+        <v>0.006191467695684238</v>
       </c>
       <c r="J18">
-        <v>0.2220944630974913</v>
+        <v>0.2512320790807223</v>
       </c>
       <c r="K18">
-        <v>0.1292465544466967</v>
+        <v>0.1239411784644719</v>
       </c>
       <c r="L18">
-        <v>0.06591007112620773</v>
+        <v>0.08492994293004319</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02245225120673666</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06477792753332778</v>
       </c>
       <c r="O18">
-        <v>1.017245881086573</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9708927028463279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.026711519183429</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9317130312314532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.465432254941675</v>
+        <v>3.457459092139004</v>
       </c>
       <c r="C19">
-        <v>0.9617061493144377</v>
+        <v>0.996973358114019</v>
       </c>
       <c r="D19">
-        <v>0.2041177162483194</v>
+        <v>0.2068844245567476</v>
       </c>
       <c r="E19">
-        <v>0.09715591059919504</v>
+        <v>0.09699164409966698</v>
       </c>
       <c r="F19">
-        <v>0.5136145062907573</v>
+        <v>0.4987959554351633</v>
       </c>
       <c r="G19">
-        <v>0.2606405718344291</v>
+        <v>0.2381492352448049</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.006104397241093906</v>
+        <v>0.006192589307470797</v>
       </c>
       <c r="J19">
-        <v>0.2218283565890005</v>
+        <v>0.2527961015450657</v>
       </c>
       <c r="K19">
-        <v>0.1298329855282248</v>
+        <v>0.1246328850933782</v>
       </c>
       <c r="L19">
-        <v>0.06577162189739028</v>
+        <v>0.08527324247276447</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02248798313545119</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06466525621908303</v>
       </c>
       <c r="O19">
-        <v>1.00895871331759</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9671107784378279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.018283060031081</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9297547451567851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.598108375851893</v>
+        <v>3.588779185565102</v>
       </c>
       <c r="C20">
-        <v>0.9969037056711727</v>
+        <v>1.034431310262505</v>
       </c>
       <c r="D20">
-        <v>0.2102466373240475</v>
+        <v>0.2137965516044034</v>
       </c>
       <c r="E20">
-        <v>0.09919013331725779</v>
+        <v>0.09912391365320872</v>
       </c>
       <c r="F20">
-        <v>0.5215489945206642</v>
+        <v>0.5033209726579813</v>
       </c>
       <c r="G20">
-        <v>0.2650925710662975</v>
+        <v>0.2487826906297315</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.006876369781061875</v>
+        <v>0.006870658997254253</v>
       </c>
       <c r="J20">
-        <v>0.2218114283701382</v>
+        <v>0.2431063826382029</v>
       </c>
       <c r="K20">
-        <v>0.1261644933212871</v>
+        <v>0.1205625329092896</v>
       </c>
       <c r="L20">
-        <v>0.06623298215364315</v>
+        <v>0.08338000973451187</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02197452571346314</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06500812471456285</v>
       </c>
       <c r="O20">
-        <v>1.048047055563721</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.97663747462488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.05795981848101</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9303918109587386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.044574812098404</v>
+        <v>4.030106215240266</v>
       </c>
       <c r="C21">
-        <v>1.112863386160654</v>
+        <v>1.151374081941924</v>
       </c>
       <c r="D21">
-        <v>0.2309069288172338</v>
+        <v>0.2397209381513221</v>
       </c>
       <c r="E21">
-        <v>0.1062416124821226</v>
+        <v>0.1069939889999034</v>
       </c>
       <c r="F21">
-        <v>0.5508223269217254</v>
+        <v>0.5107767884124499</v>
       </c>
       <c r="G21">
-        <v>0.2820289975855559</v>
+        <v>0.3184910213706047</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00962733172259167</v>
+        <v>0.009125745561041398</v>
       </c>
       <c r="J21">
-        <v>0.2228569701408247</v>
+        <v>0.1824796533205486</v>
       </c>
       <c r="K21">
-        <v>0.1149521803146438</v>
+        <v>0.1061419176328968</v>
       </c>
       <c r="L21">
-        <v>0.06809716285425793</v>
+        <v>0.07713964491923164</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02013616287451292</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06626058088955844</v>
       </c>
       <c r="O21">
-        <v>1.179081424031153</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.015138282999146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.190555657267566</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9116260788813833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.337381902471691</v>
+        <v>4.319327074348564</v>
       </c>
       <c r="C22">
-        <v>1.184586938405801</v>
+        <v>1.222966901912002</v>
       </c>
       <c r="D22">
-        <v>0.2443096040870074</v>
+        <v>0.2569989076646522</v>
       </c>
       <c r="E22">
-        <v>0.1110198371172508</v>
+        <v>0.1123877665341055</v>
       </c>
       <c r="F22">
-        <v>0.5728657512127526</v>
+        <v>0.5169725588923058</v>
       </c>
       <c r="G22">
-        <v>0.2953619505034482</v>
+        <v>0.3738020138884508</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01143862870488821</v>
+        <v>0.01047522670323353</v>
       </c>
       <c r="J22">
-        <v>0.2247658689799152</v>
+        <v>0.1509150540354156</v>
       </c>
       <c r="K22">
-        <v>0.1087965015090315</v>
+        <v>0.09758355649781691</v>
       </c>
       <c r="L22">
-        <v>0.06961359601930184</v>
+        <v>0.07366706739610329</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01943859883366983</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0673441786818394</v>
       </c>
       <c r="O22">
-        <v>1.263994523987449</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.047659160484869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.276420733733261</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9026998443615923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.181783690396912</v>
+        <v>4.165701975167906</v>
       </c>
       <c r="C23">
-        <v>1.141968274852218</v>
+        <v>1.181763880792346</v>
       </c>
       <c r="D23">
-        <v>0.2368395665184551</v>
+        <v>0.2469260181153459</v>
       </c>
       <c r="E23">
-        <v>0.1084491682993054</v>
+        <v>0.1093889339625704</v>
       </c>
       <c r="F23">
-        <v>0.5625884164634627</v>
+        <v>0.5170792308165346</v>
       </c>
       <c r="G23">
-        <v>0.2894822182043484</v>
+        <v>0.3386230796948979</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01018461707537366</v>
+        <v>0.009421386024731859</v>
       </c>
       <c r="J23">
-        <v>0.2243859863700806</v>
+        <v>0.1720263098571237</v>
       </c>
       <c r="K23">
-        <v>0.1126101480153245</v>
+        <v>0.1028757618721485</v>
       </c>
       <c r="L23">
-        <v>0.06888134820993486</v>
+        <v>0.07569190914455337</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02015810457171341</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06688089565048472</v>
       </c>
       <c r="O23">
-        <v>1.217659769176223</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.03426145974197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.229677874804139</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9163630626268571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.591897724089733</v>
+        <v>3.582619225798794</v>
       </c>
       <c r="C24">
-        <v>0.9884515136546668</v>
+        <v>1.025842011211751</v>
       </c>
       <c r="D24">
-        <v>0.2094571931338862</v>
+        <v>0.2129633186684572</v>
       </c>
       <c r="E24">
-        <v>0.09907221431506841</v>
+        <v>0.09899935728367026</v>
       </c>
       <c r="F24">
-        <v>0.5235628750665953</v>
+        <v>0.5054353273049017</v>
       </c>
       <c r="G24">
-        <v>0.2668642450538457</v>
+        <v>0.2500602154435612</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006406485057824263</v>
+        <v>0.006305769130359629</v>
       </c>
       <c r="J24">
-        <v>0.2228638245931691</v>
+        <v>0.2446966452745656</v>
       </c>
       <c r="K24">
-        <v>0.1272660423471343</v>
+        <v>0.1215568286809834</v>
       </c>
       <c r="L24">
-        <v>0.0663544359365531</v>
+        <v>0.08376562838609747</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02231005581947443</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06513149209078151</v>
       </c>
       <c r="O24">
-        <v>1.044401156757175</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.982590135030236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.054308598833011</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9365301933295598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.956162997488548</v>
+        <v>2.952748071382018</v>
       </c>
       <c r="C25">
-        <v>0.8242611590389117</v>
+        <v>0.844899722435855</v>
       </c>
       <c r="D25">
-        <v>0.1807238642140732</v>
+        <v>0.182875295501816</v>
       </c>
       <c r="E25">
-        <v>0.0896369791984597</v>
+        <v>0.08954022323787214</v>
       </c>
       <c r="F25">
-        <v>0.4863414844200875</v>
+        <v>0.4747978523350511</v>
       </c>
       <c r="G25">
-        <v>0.2459311451264909</v>
+        <v>0.2263030872472171</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003409048892861755</v>
+        <v>0.003675488625321854</v>
       </c>
       <c r="J25">
-        <v>0.2232640671443278</v>
+        <v>0.2523271776731661</v>
       </c>
       <c r="K25">
-        <v>0.1453550700441273</v>
+        <v>0.1397249096206528</v>
       </c>
       <c r="L25">
-        <v>0.06440917224427523</v>
+        <v>0.09263513409119195</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02481859772171813</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.0635526014066059</v>
       </c>
       <c r="O25">
-        <v>0.8585113435511573</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9384421380073462</v>
+        <v>0.8652147181532257</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9088988880910449</v>
       </c>
     </row>
   </sheetData>
